--- a/GestorPAT/src/resources/users.xlsx
+++ b/GestorPAT/src/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -32,10 +32,16 @@
     <t>Juan</t>
   </si>
   <si>
-    <t>123</t>
+    <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -114,6 +120,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
